--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{028A9412-AE06-43C9-A2CF-BFC63614B9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECFA5E-F83C-44DA-8D94-E86EF6E45FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="1650" windowWidth="24375" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
+    <workbookView xWindow="2220" yWindow="690" windowWidth="29130" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$83</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>View</t>
   </si>
@@ -59,18 +62,6 @@
     <t>5 Min close above 30 min high 9:45 to 10:10 candle</t>
   </si>
   <si>
-    <t>1. Red Shooting Star: Close &lt; Open, Long upper wick, Small lower wick</t>
-  </si>
-  <si>
-    <t>2. Hard Red Candle After Green: Strong green followed by strong red</t>
-  </si>
-  <si>
-    <t>3. Doji Candles at least 2 somewhat doji forming and breaking Breakdown</t>
-  </si>
-  <si>
-    <t>4. Engulfing Red: Red candle engulfs previous strong green</t>
-  </si>
-  <si>
     <t>Below Low</t>
   </si>
   <si>
@@ -98,21 +89,9 @@
     <t>Gap High</t>
   </si>
   <si>
-    <t>1. Market Resist from day's high after few candles</t>
-  </si>
-  <si>
-    <t>2. Doji candles at top atleast 2, not perfect doji alike and then low break of them</t>
-  </si>
-  <si>
-    <t>3. RED Shooting star or doji break down</t>
-  </si>
-  <si>
     <t>Gap Low</t>
   </si>
   <si>
-    <t>1. Market Resist from Prev day low.</t>
-  </si>
-  <si>
     <t>Mid Strength</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>No Signal</t>
   </si>
   <si>
-    <t>No Trade</t>
-  </si>
-  <si>
     <t>Open Strength</t>
   </si>
   <si>
@@ -155,45 +131,27 @@
     <t>2. Prev day zizgag resistance rectangle, don’t  need complete touch to rectangle nearby engulfing or weak formation is enough</t>
   </si>
   <si>
-    <t>3. If 2nd candle breaks low and close exit make sure no untouched level, Weak formation near any level Untouched, EMA, etc</t>
-  </si>
-  <si>
     <t>Weak</t>
   </si>
   <si>
-    <t>5 Min close above 30 min Low 9:45 to 10:10 candle</t>
-  </si>
-  <si>
     <t>Short</t>
   </si>
   <si>
     <t>5 Min close Below 30 min  9:45 to 10:10 candle</t>
   </si>
   <si>
-    <t>1. Daily Support</t>
-  </si>
-  <si>
     <t>2. EMA Support</t>
   </si>
   <si>
     <t>If then market reverses and close above EMA exit</t>
   </si>
   <si>
-    <t>1. Closed above EMA</t>
-  </si>
-  <si>
-    <t>2. Avoid if there's a gap</t>
-  </si>
-  <si>
     <t>3. Untouched levels</t>
   </si>
   <si>
     <t>1. Old Gap. These Trades Very Risky Market shoots usually when Wrong</t>
   </si>
   <si>
-    <t>2. Daily Support</t>
-  </si>
-  <si>
     <t>1. Low/EMA/Prev untouched support</t>
   </si>
   <si>
@@ -209,16 +167,178 @@
     <t>1. Support from any level , untouched,  EMA, Not only line wick also have to consider</t>
   </si>
   <si>
-    <t>1. None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Trade </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Zigzag level with wicks, bullish formation, </t>
   </si>
   <si>
     <t>2. Gaps strong formation better to ignore if gap</t>
+  </si>
+  <si>
+    <t>3. 30-Min Close Below Previous Day's High</t>
+  </si>
+  <si>
+    <t>If Red hammer or Green Hammer wait for 5 min confirmation</t>
+  </si>
+  <si>
+    <t>1. Big First Candle (Exhaustion Warning) 1%+</t>
+  </si>
+  <si>
+    <t>2. Red Shooting Star(Indicator)+ Box Indicator, Low Break or if small candle then maybe wait little</t>
+  </si>
+  <si>
+    <t>If support taken at any level</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>1. Daily Support/ Not if again closes up</t>
+  </si>
+  <si>
+    <t>3. Close above Mid Prev day</t>
+  </si>
+  <si>
+    <t>Not Enter if Green Hammer(take long on 5 min confim) or Strong Red (enter on 5 min confirmation)</t>
+  </si>
+  <si>
+    <t>Only if Green Hammer or Strong red but require confirmation</t>
+  </si>
+  <si>
+    <t>4. Close Below Low of First canlde and not levels nearby / wicks consider wait for close oda v ta rakhna hi c end tak</t>
+  </si>
+  <si>
+    <t>Ambush If also Above Yest High Break at same Time(not if green Hammer confirmation in this case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Mid level very crucial if appraoch from below wick consider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush if touhced low and close above and little to decent distance between first close and mid </t>
+  </si>
+  <si>
+    <t>All other scenario wait for 5 min confirmation</t>
+  </si>
+  <si>
+    <t>2. No Entry</t>
+  </si>
+  <si>
+    <t>1. If candle touched the mid and close below appraoch from below, if 1st touched 2nd should also touch mid</t>
+  </si>
+  <si>
+    <t>EMA Weekness</t>
+  </si>
+  <si>
+    <t>1. Closed above EMA no wicks nothing else to check even if another level is nearby</t>
+  </si>
+  <si>
+    <t>2. Inside Indicator(no matter wick opr if it doesn’t look inside, both side marked just quit), Avoid if there's a gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush unless candle is Doji </t>
+  </si>
+  <si>
+    <t>Only 5 Min confirmation, another level must not be near</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush if Doji, </t>
+  </si>
+  <si>
+    <t>Above High Shooting Indicator</t>
+  </si>
+  <si>
+    <t>Red hammer/Green Hammer- Straddle</t>
+  </si>
+  <si>
+    <t>No Long If Doji also if Red Inverted Hammer only long on confirmation</t>
+  </si>
+  <si>
+    <t>1. Above High indicator Shooting or Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Undecisive touching High then close opposite side </t>
+  </si>
+  <si>
+    <t>Wait is better then exit</t>
+  </si>
+  <si>
+    <t>Ambush if non other applies</t>
+  </si>
+  <si>
+    <t>Ambush on Doji, Touched Daily or Old untouched level</t>
+  </si>
+  <si>
+    <t>Ambush if Green Hammer</t>
+  </si>
+  <si>
+    <t>2. Daily Support w Wick even if break on 30 there are still chances of reversal</t>
+  </si>
+  <si>
+    <t>1. Market Resist from Prev day low or untouched</t>
+  </si>
+  <si>
+    <t>5 Min Confirmation</t>
+  </si>
+  <si>
+    <t>5 Min confirmation</t>
+  </si>
+  <si>
+    <t>Ambush if non other level is nearby if there is any level then 5 min confirmation above that level</t>
+  </si>
+  <si>
+    <t>Ambush if Green Hammer and touched yest mid closed below</t>
+  </si>
+  <si>
+    <t>Ambush unless other untouched level is nearby</t>
+  </si>
+  <si>
+    <t>Ambush unless any level is nearby if low/high then draw rectangle</t>
+  </si>
+  <si>
+    <t>Unless market take support from near Level</t>
+  </si>
+  <si>
+    <t>Wait for 2nd 30 min candle, to see if it engulf body of first</t>
+  </si>
+  <si>
+    <t>1. Untouched levels</t>
+  </si>
+  <si>
+    <t>Ambush but if market is above 38% of Prev day no short</t>
+  </si>
+  <si>
+    <t>If market is above 38% of Prev day fib, and form inside candle and close above</t>
+  </si>
+  <si>
+    <t>Even if above 38% the second closes below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush unless level is nearby </t>
+  </si>
+  <si>
+    <t>Touches any level form doji and gave close below</t>
+  </si>
+  <si>
+    <t>3. If 2nd candle breaks low and close(wicks consider exit make sure no untouched level, Weak formation near any level Untouched, EMA, etc</t>
+  </si>
+  <si>
+    <t>1.Once Above high same above high indicator apply</t>
+  </si>
+  <si>
+    <t>Ambush if strong red and no other level nearby</t>
+  </si>
+  <si>
+    <t>3. Market resist from high again</t>
+  </si>
+  <si>
+    <t>2. if next candles closes below mid wicks consider and nearest another level consider w wicks</t>
+  </si>
+  <si>
+    <t>If resist from high again</t>
+  </si>
+  <si>
+    <t>If 2nd candle closes below wicks consider</t>
+  </si>
+  <si>
+    <t>Ambush, if strong red then not wait for 2nd candle</t>
   </si>
 </sst>
 </file>
@@ -326,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,23 +512,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -426,16 +539,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -769,17 +872,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="130.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -816,9 +919,11 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,7 +933,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -837,9 +942,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -852,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -872,114 +975,120 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+      <c r="B15" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -992,285 +1101,289 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
+      <c r="D26" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>49</v>
+      <c r="D49" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,122 +1394,128 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>51</v>
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1407,99 +1526,214 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="9"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D71" s="9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="11"/>
     </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="11"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:A70">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Short">
-      <formula>NOT(ISERROR(SEARCH("Short",A40)))</formula>
+  <autoFilter ref="A1:D83" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}"/>
+  <conditionalFormatting sqref="A2:A44">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Long">
+      <formula>NOT(ISERROR(SEARCH("Long",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A39">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Long">
-      <formula>NOT(ISERROR(SEARCH("Long",A2)))</formula>
+  <conditionalFormatting sqref="A45:A80">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Short">
+      <formula>NOT(ISERROR(SEARCH("Short",A45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECFA5E-F83C-44DA-8D94-E86EF6E45FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC07C06-B5F9-4D7A-9300-E33AF7F7C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="690" windowWidth="29130" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>View</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Ambush, if strong red then not wait for 2nd candle</t>
+  </si>
+  <si>
+    <t>Long Bias More then Short irrespective of name</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>93</v>
@@ -1311,7 +1314,9 @@
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D42" s="9" t="s">
         <v>96</v>
       </c>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC07C06-B5F9-4D7A-9300-E33AF7F7C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D931EE-A788-435A-9B9F-21CBD591EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="690" windowWidth="29130" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>View</t>
   </si>
@@ -281,12 +281,6 @@
     <t>5 Min confirmation</t>
   </si>
   <si>
-    <t>Ambush if non other level is nearby if there is any level then 5 min confirmation above that level</t>
-  </si>
-  <si>
-    <t>Ambush if Green Hammer and touched yest mid closed below</t>
-  </si>
-  <si>
     <t>Ambush unless other untouched level is nearby</t>
   </si>
   <si>
@@ -342,6 +336,15 @@
   </si>
   <si>
     <t>Long Bias More then Short irrespective of name</t>
+  </si>
+  <si>
+    <t>Ambush if non other level is nearby if there is any level then 5 min confirmation above that level, wicks consider if weak then short</t>
+  </si>
+  <si>
+    <t>1.Ambush if Green Hammer and touched yest mid closed below</t>
+  </si>
+  <si>
+    <t>2. Facing resistance near untouched level and form doji goes below</t>
   </si>
 </sst>
 </file>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>18</v>
@@ -1207,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -1225,10 +1228,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -1263,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>28</v>
@@ -1286,7 +1289,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1315,10 +1318,10 @@
         <v>30</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,7 +1329,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1537,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>37</v>
@@ -1548,7 +1551,9 @@
       <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1565,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>38</v>
@@ -1605,7 +1610,7 @@
         <v>24</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>41</v>
@@ -1625,10 +1630,10 @@
         <v>25</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1645,10 +1650,10 @@
         <v>26</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1657,7 +1662,7 @@
         <v>26</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -1675,10 +1680,10 @@
         <v>27</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1695,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>42</v>
@@ -1707,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>43</v>
@@ -1719,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" s="9"/>
     </row>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D931EE-A788-435A-9B9F-21CBD591EF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648E240-C21A-46F3-907A-1F5F466390CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>View</t>
   </si>
@@ -71,21 +71,9 @@
     <t>EMA Strength</t>
   </si>
   <si>
-    <t>1. Doji Candles at least 2 somewhat doji forming and breaking Breakdown</t>
-  </si>
-  <si>
-    <t>2. Another Level very nearby</t>
-  </si>
-  <si>
-    <t>3. Untouched Levels, consider wicks</t>
-  </si>
-  <si>
     <t>EMA Weakness</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 5 Min gave close but 30 min candle becomes red </t>
-  </si>
-  <si>
     <t>Gap High</t>
   </si>
   <si>
@@ -95,24 +83,9 @@
     <t>Mid Strength</t>
   </si>
   <si>
-    <t>1. If market show resistance near Prev High or Engulfing near High</t>
-  </si>
-  <si>
-    <t>2. Two Doji candles always risky if break (wick consider if showed break in favourable side</t>
-  </si>
-  <si>
-    <t>3. Prev day zigzag resistance zone very much respeceted draw rectangle and if resist, exit</t>
-  </si>
-  <si>
     <t>Mid Weak</t>
   </si>
   <si>
-    <t>1. Doji Near level, either mid, high anywhere market shoots</t>
-  </si>
-  <si>
-    <t>2. Market weak touching any level, High,Untouched,EMA, Prev day zigzag level  etc</t>
-  </si>
-  <si>
     <t>No Signal</t>
   </si>
   <si>
@@ -125,12 +98,6 @@
     <t>Strength</t>
   </si>
   <si>
-    <t>1. Two Doji candles, doesn’t have to perfect doji, wnd candle goes above close below 1st high also touch some level</t>
-  </si>
-  <si>
-    <t>2. Prev day zizgag resistance rectangle, don’t  need complete touch to rectangle nearby engulfing or weak formation is enough</t>
-  </si>
-  <si>
     <t>Weak</t>
   </si>
   <si>
@@ -140,99 +107,36 @@
     <t>5 Min close Below 30 min  9:45 to 10:10 candle</t>
   </si>
   <si>
-    <t>2. EMA Support</t>
-  </si>
-  <si>
     <t>If then market reverses and close above EMA exit</t>
   </si>
   <si>
-    <t>3. Untouched levels</t>
-  </si>
-  <si>
-    <t>1. Old Gap. These Trades Very Risky Market shoots usually when Wrong</t>
-  </si>
-  <si>
-    <t>1. Low/EMA/Prev untouched support</t>
-  </si>
-  <si>
-    <t>1. Support from any level EMA,Low,Untouched always book if 5 min close above that level again</t>
-  </si>
-  <si>
-    <t>2. Beware of gaps</t>
-  </si>
-  <si>
-    <t>3. Zigzag level of prev day body wick level very important to check</t>
-  </si>
-  <si>
-    <t>1. Support from any level , untouched,  EMA, Not only line wick also have to consider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Zigzag level with wicks, bullish formation, </t>
-  </si>
-  <si>
-    <t>2. Gaps strong formation better to ignore if gap</t>
-  </si>
-  <si>
-    <t>3. 30-Min Close Below Previous Day's High</t>
-  </si>
-  <si>
     <t>If Red hammer or Green Hammer wait for 5 min confirmation</t>
   </si>
   <si>
-    <t>1. Big First Candle (Exhaustion Warning) 1%+</t>
-  </si>
-  <si>
-    <t>2. Red Shooting Star(Indicator)+ Box Indicator, Low Break or if small candle then maybe wait little</t>
-  </si>
-  <si>
     <t>If support taken at any level</t>
   </si>
   <si>
     <t>Ambush</t>
   </si>
   <si>
-    <t>1. Daily Support/ Not if again closes up</t>
-  </si>
-  <si>
-    <t>3. Close above Mid Prev day</t>
-  </si>
-  <si>
     <t>Not Enter if Green Hammer(take long on 5 min confim) or Strong Red (enter on 5 min confirmation)</t>
   </si>
   <si>
     <t>Only if Green Hammer or Strong red but require confirmation</t>
   </si>
   <si>
-    <t>4. Close Below Low of First canlde and not levels nearby / wicks consider wait for close oda v ta rakhna hi c end tak</t>
-  </si>
-  <si>
     <t>Ambush If also Above Yest High Break at same Time(not if green Hammer confirmation in this case)</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Mid level very crucial if appraoch from below wick consider </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ambush if touhced low and close above and little to decent distance between first close and mid </t>
   </si>
   <si>
     <t>All other scenario wait for 5 min confirmation</t>
   </si>
   <si>
-    <t>2. No Entry</t>
-  </si>
-  <si>
-    <t>1. If candle touched the mid and close below appraoch from below, if 1st touched 2nd should also touch mid</t>
-  </si>
-  <si>
     <t>EMA Weekness</t>
   </si>
   <si>
-    <t>1. Closed above EMA no wicks nothing else to check even if another level is nearby</t>
-  </si>
-  <si>
-    <t>2. Inside Indicator(no matter wick opr if it doesn’t look inside, both side marked just quit), Avoid if there's a gap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ambush unless candle is Doji </t>
   </si>
   <si>
@@ -251,12 +155,6 @@
     <t>No Long If Doji also if Red Inverted Hammer only long on confirmation</t>
   </si>
   <si>
-    <t>1. Above High indicator Shooting or Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Undecisive touching High then close opposite side </t>
-  </si>
-  <si>
     <t>Wait is better then exit</t>
   </si>
   <si>
@@ -269,12 +167,6 @@
     <t>Ambush if Green Hammer</t>
   </si>
   <si>
-    <t>2. Daily Support w Wick even if break on 30 there are still chances of reversal</t>
-  </si>
-  <si>
-    <t>1. Market Resist from Prev day low or untouched</t>
-  </si>
-  <si>
     <t>5 Min Confirmation</t>
   </si>
   <si>
@@ -293,9 +185,6 @@
     <t>Wait for 2nd 30 min candle, to see if it engulf body of first</t>
   </si>
   <si>
-    <t>1. Untouched levels</t>
-  </si>
-  <si>
     <t>Ambush but if market is above 38% of Prev day no short</t>
   </si>
   <si>
@@ -311,40 +200,154 @@
     <t>Touches any level form doji and gave close below</t>
   </si>
   <si>
-    <t>3. If 2nd candle breaks low and close(wicks consider exit make sure no untouched level, Weak formation near any level Untouched, EMA, etc</t>
-  </si>
-  <si>
-    <t>1.Once Above high same above high indicator apply</t>
-  </si>
-  <si>
     <t>Ambush if strong red and no other level nearby</t>
   </si>
   <si>
-    <t>3. Market resist from high again</t>
-  </si>
-  <si>
-    <t>2. if next candles closes below mid wicks consider and nearest another level consider w wicks</t>
-  </si>
-  <si>
     <t>If resist from high again</t>
   </si>
   <si>
     <t>If 2nd candle closes below wicks consider</t>
   </si>
   <si>
-    <t>Ambush, if strong red then not wait for 2nd candle</t>
-  </si>
-  <si>
     <t>Long Bias More then Short irrespective of name</t>
   </si>
   <si>
     <t>Ambush if non other level is nearby if there is any level then 5 min confirmation above that level, wicks consider if weak then short</t>
   </si>
   <si>
-    <t>1.Ambush if Green Hammer and touched yest mid closed below</t>
-  </si>
-  <si>
-    <t>2. Facing resistance near untouched level and form doji goes below</t>
+    <t xml:space="preserve">Market seem to taking support then break with big candle wait for retrace back to some level </t>
+  </si>
+  <si>
+    <t>Ambush, But if strong red then  wait for 2nd candle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big First Candle (Exhaustion Warning) 1%+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doji Candles at least 2 somewhat doji forming and breaking Breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 Min gave close but 30 min candle becomes red </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Above High indicator Shooting or Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market Resist from Prev day low or untouched</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If market show resistance near Prev High or Engulfing near High</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doji Near level, either mid, high anywhere market shoots</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Untouched levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Two Doji candles, doesn’t have to perfect doji, wnd candle goes above close below 1st high also touch some level</t>
+  </si>
+  <si>
+    <t>Once Above high same above high indicator apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daily Support/ Not if again closes up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If candle touched the mid and close below appraoch from below, if 1st touched 2nd should also touch mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Closed above EMA no wicks nothing else to check even if another level is nearby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Old Gap. These Trades Very Risky Market shoots usually when Wrong</t>
+  </si>
+  <si>
+    <t>Ambush if Green Hammer and touched yest mid closed below</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low/EMA/Prev untouched support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Support from any level EMA,Low,Untouched always book if 5 min close above that level again</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Support from any level , untouched,  EMA, Not only line wick also have to consider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zigzag level with wicks, bullish formation, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Shooting Star(Indicator)+ Box Indicator, Low Break or if small candle then maybe wait little</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another Level very nearby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Undecisive touching High then close opposite side </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Two Doji candles always risky if break (wick consider if showed break in favourable side</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market weak touching any level, High,Untouched,EMA, Prev day zigzag level  etc</t>
+  </si>
+  <si>
+    <t>If below 38%30 Min confirmation on closing basis very important even if it seem market taking support near any level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prev day zizgag resistance rectangle, don’t  need complete touch to rectangle nearby engulfing or weak formation is enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if next candles closes below mid wicks consider and nearest another level consider w wicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMA Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inside Indicator(no matter wick opr if it doesn’t look inside, both side marked just quit), Avoid if there's a gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daily Support w Wick even if break on 30 there are still chances of reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facing resistance near untouched level and form doji goes below</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beware of gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaps strong formation better to ignore if gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30-Min Close Below Previous Day's High</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Untouched Levels, consider wicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prev day zigzag resistance zone very much respeceted draw rectangle and if resist, exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If 2nd candle breaks low and close(wicks consider exit make sure no untouched level, Weak formation near any level Untouched, EMA, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market resist from high again</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close above Mid Prev day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zigzag level of prev day body wick level very important to check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close Below Low of First canlde and not levels nearby / wicks consider wait for close oda v ta rakhna hi c end tak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mid level very crucial if appraoch from below wick consider </t>
   </si>
 </sst>
 </file>
@@ -878,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -914,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -926,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,7 +942,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -964,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>8</v>
@@ -984,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,10 +999,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1008,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1024,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1031,7 +1034,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1065,34 +1068,34 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1107,22 +1110,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -1137,33 +1140,33 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,23 +1180,23 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -1225,13 +1228,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,143 +1248,139 @@
         <v>4</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D38" s="9" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D43" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>52</v>
+      <c r="C48" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,361 +1388,383 @@
       <c r="B49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="22"/>
+      <c r="C52" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>62</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="9" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="A74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B76" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>27</v>
+      <c r="A78" s="2"/>
+      <c r="B78" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D83" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}"/>
-  <conditionalFormatting sqref="A2:A44">
+  <autoFilter ref="A1:D85" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}"/>
+  <conditionalFormatting sqref="A2:A45">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Long">
       <formula>NOT(ISERROR(SEARCH("Long",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A80">
+  <conditionalFormatting sqref="A46:A82">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Short">
-      <formula>NOT(ISERROR(SEARCH("Short",A45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Short",A46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648E240-C21A-46F3-907A-1F5F466390CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82324A3-D672-4C8F-9BEB-447E4D83FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>View</t>
   </si>
@@ -134,9 +134,6 @@
     <t>All other scenario wait for 5 min confirmation</t>
   </si>
   <si>
-    <t>EMA Weekness</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ambush unless candle is Doji </t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Red hammer/Green Hammer- Straddle</t>
   </si>
   <si>
-    <t>No Long If Doji also if Red Inverted Hammer only long on confirmation</t>
-  </si>
-  <si>
     <t>Wait is better then exit</t>
   </si>
   <si>
@@ -348,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mid level very crucial if appraoch from below wick consider </t>
+  </si>
+  <si>
+    <t>No Long If Doji also if Red Inverted Hammer only long on confirmation must happen in 30 min no later</t>
   </si>
 </sst>
 </file>
@@ -883,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,10 +914,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -932,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,7 +939,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1014,7 +1011,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1024,7 +1021,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1034,7 +1031,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,13 +1045,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1071,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1113,10 +1110,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1125,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -1143,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1156,7 +1153,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1166,7 +1163,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1196,7 +1193,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -1231,10 +1228,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1251,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -1259,7 +1256,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1277,10 +1274,10 @@
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,7 +1287,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1297,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1340,7 +1337,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1399,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1419,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>22</v>
@@ -1431,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="22"/>
     </row>
@@ -1449,10 +1446,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1459,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1472,7 +1469,7 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,10 +1486,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1501,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1519,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1563,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1581,10 +1578,10 @@
         <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1594,7 +1591,7 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1601,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,10 +1618,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,10 +1638,10 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,10 +1658,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1670,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -1683,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -1701,10 +1698,10 @@
         <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,10 +1718,10 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1733,10 +1730,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" s="9"/>
     </row>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82324A3-D672-4C8F-9BEB-447E4D83FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109B9B9-DB12-4D7F-8FB7-3F6B10F32F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -257,9 +257,6 @@
     <t xml:space="preserve"> Old Gap. These Trades Very Risky Market shoots usually when Wrong</t>
   </si>
   <si>
-    <t>Ambush if Green Hammer and touched yest mid closed below</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Low/EMA/Prev untouched support</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>No Long If Doji also if Red Inverted Hammer only long on confirmation must happen in 30 min no later</t>
+  </si>
+  <si>
+    <t>Ambush if Green Hammer and touched yest mid(Stricktly Mid) closed below</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>57</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="22"/>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>41</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>43</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
         <v>51</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109B9B9-DB12-4D7F-8FB7-3F6B10F32F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318334AA-EC16-4987-844E-B8224829D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
   <si>
     <t>View</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Touches any level form doji and gave close below</t>
   </si>
   <si>
-    <t>Ambush if strong red and no other level nearby</t>
-  </si>
-  <si>
     <t>If resist from high again</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t xml:space="preserve"> Two Doji candles, doesn’t have to perfect doji, wnd candle goes above close below 1st high also touch some level</t>
   </si>
   <si>
-    <t>Once Above high same above high indicator apply</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Daily Support/ Not if again closes up</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t xml:space="preserve"> Prev day zizgag resistance rectangle, don’t  need complete touch to rectangle nearby engulfing or weak formation is enough</t>
   </si>
   <si>
-    <t xml:space="preserve"> if next candles closes below mid wicks consider and nearest another level consider w wicks</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMA Support</t>
   </si>
   <si>
@@ -326,9 +317,6 @@
     <t xml:space="preserve"> If 2nd candle breaks low and close(wicks consider exit make sure no untouched level, Weak formation near any level Untouched, EMA, etc</t>
   </si>
   <si>
-    <t xml:space="preserve"> Market resist from high again</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Close above Mid Prev day</t>
   </si>
   <si>
@@ -345,6 +333,21 @@
   </si>
   <si>
     <t>Ambush if Green Hammer and touched yest mid(Stricktly Mid) closed below</t>
+  </si>
+  <si>
+    <t>Once Above high, same Above high indicator apply</t>
+  </si>
+  <si>
+    <t>If next candles closes below mid wicks consider and nearest another level consider w wicks</t>
+  </si>
+  <si>
+    <t>Market resist from high again</t>
+  </si>
+  <si>
+    <t>Ambush if strong red and no other level nearby,</t>
+  </si>
+  <si>
+    <t>If 1st candle Touched yest mid and close below</t>
   </si>
 </sst>
 </file>
@@ -878,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -929,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,7 +942,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1011,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1024,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1031,7 +1034,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1051,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1071,7 +1074,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1080,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1113,7 +1116,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1140,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1156,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,7 +1166,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1196,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1231,7 +1234,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1259,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1277,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1290,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1300,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1314,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,10 +1329,10 @@
         <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1337,7 +1340,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1402,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1416,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>22</v>
@@ -1428,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D53" s="22"/>
     </row>
@@ -1449,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,7 +1462,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1472,7 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,7 +1522,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1581,7 +1584,7 @@
         <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1591,7 +1594,7 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1604,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,7 +1624,7 @@
         <v>43</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,7 +1664,7 @@
         <v>46</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -1701,7 +1704,7 @@
         <v>50</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,10 +1721,10 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1730,10 +1733,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1742,18 +1745,26 @@
         <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D85" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}"/>
+  <autoFilter ref="A1:D86" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}"/>
   <conditionalFormatting sqref="A2:A45">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Long">
       <formula>NOT(ISERROR(SEARCH("Long",A2)))</formula>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318334AA-EC16-4987-844E-B8224829D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31E088-E1E4-4B5D-956D-BDF8AB3400CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="104">
   <si>
     <t>View</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Once Above high, same Above high indicator apply</t>
   </si>
   <si>
-    <t>If next candles closes below mid wicks consider and nearest another level consider w wicks</t>
-  </si>
-  <si>
     <t>Market resist from high again</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>If 1st candle Touched yest mid and close below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit mid close below mid and that turn out to be also low of first candle then only, wicks should be considered and if another level is nearby better to wait even if this condition met </t>
+  </si>
+  <si>
+    <t>Exit mid close below mid cat that turn oigh to be also low of first Indicator e Hi only, wicks should be considedicacat Shooting another level is nearby better to Above even Shooting this coShootingition met</t>
   </si>
 </sst>
 </file>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
         <v>56</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1340,7 +1343,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>73</v>
@@ -1753,7 +1756,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="9"/>
     </row>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31E088-E1E4-4B5D-956D-BDF8AB3400CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15FF4D-7F87-4D9D-BD6C-5E6AA5429EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
   <si>
     <t>View</t>
   </si>
@@ -347,10 +347,7 @@
     <t>If 1st candle Touched yest mid and close below</t>
   </si>
   <si>
-    <t xml:space="preserve">Exit mid close below mid and that turn out to be also low of first candle then only, wicks should be considered and if another level is nearby better to wait even if this condition met </t>
-  </si>
-  <si>
-    <t>Exit mid close below mid cat that turn oigh to be also low of first Indicator e Hi only, wicks should be considedicacat Shooting another level is nearby better to Above even Shooting this coShootingition met</t>
+    <t xml:space="preserve">Exit if close below mid and that turn out to be also low of first candle then only, wicks should be considered and if another level is nearby better to wait even if this condition met </t>
   </si>
 </sst>
 </file>
@@ -887,7 +884,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15FF4D-7F87-4D9D-BD6C-5E6AA5429EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B78CD-4E16-4037-91FE-6BFBF8044AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
+    <workbookView xWindow="20550" yWindow="1290" windowWidth="26715" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>View</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exit if close below mid and that turn out to be also low of first candle then only, wicks should be considered and if another level is nearby better to wait even if this condition met </t>
+  </si>
+  <si>
+    <t>Entry if RED shooting start type candle form and next close / go below it</t>
   </si>
 </sst>
 </file>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1595,9 @@
       <c r="B69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="D69" s="9" t="s">
         <v>86</v>
       </c>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\New Toy Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B78CD-4E16-4037-91FE-6BFBF8044AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8009488-196F-4FC7-8ADC-671252B94F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20550" yWindow="1290" windowWidth="26715" windowHeight="12420" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Ambush If also Above Yest High Break at same Time(not if green Hammer confirmation in this case)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambush if touhced low and close above and little to decent distance between first close and mid </t>
-  </si>
-  <si>
     <t>All other scenario wait for 5 min confirmation</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t xml:space="preserve"> Daily Support/ Not if again closes up</t>
   </si>
   <si>
-    <t xml:space="preserve"> If candle touched the mid and close below appraoch from below, if 1st touched 2nd should also touch mid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Closed above EMA no wicks nothing else to check even if another level is nearby</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
   </si>
   <si>
     <t>Entry if RED shooting start type candle form and next close / go below it</t>
+  </si>
+  <si>
+    <t>If open below mid and weak touching mid, if 1st touched 2nd should also touch mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush if touched low and close above and have little to decent distance between first close and mid </t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,10 +920,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1014,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1116,10 +1116,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -1146,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -1234,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -1262,7 +1262,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1280,10 +1280,10 @@
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>22</v>
@@ -1434,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="22"/>
     </row>
@@ -1452,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1522,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1584,10 +1584,10 @@
         <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1596,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,10 +1646,10 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -1706,10 +1706,10 @@
         <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1726,10 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,10 +1738,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -1758,7 +1758,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="9"/>
     </row>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8009488-196F-4FC7-8ADC-671252B94F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BEAF9D-E11C-4084-B50B-174D214A3E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <t xml:space="preserve"> Daily Support/ Not if again closes up</t>
   </si>
   <si>
-    <t xml:space="preserve"> Closed above EMA no wicks nothing else to check even if another level is nearby</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Old Gap. These Trades Very Risky Market shoots usually when Wrong</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ambush if touched low and close above and have little to decent distance between first close and mid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Closed above EMA(strictly) no need to checks wicks or anything even if another level is nearby</t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>22</v>
@@ -1434,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="22"/>
     </row>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1525,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1587,7 +1587,7 @@
         <v>41</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1596,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>42</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1726,10 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" s="9"/>
     </row>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BEAF9D-E11C-4084-B50B-174D214A3E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBE0536-3D87-491F-AFFB-AFF144550C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{19F2ECB9-DA0F-44D1-BE0D-B933DAAEA8B4}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t xml:space="preserve"> No Entry</t>
   </si>
   <si>
-    <t xml:space="preserve"> Inside Indicator(no matter wick opr if it doesn’t look inside, both side marked just quit), Avoid if there's a gap</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Daily Support w Wick even if break on 30 there are still chances of reversal</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Closed above EMA(strictly) no need to checks wicks or anything even if another level is nearby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inside Indicator(as long as candle looks inside, or doji ), Avoid if there's a gap</t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D4B36-7C06-4EAC-AF4F-111DA5726F93}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>72</v>
@@ -1017,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>73</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>22</v>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>67</v>
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -1596,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>70</v>
@@ -1741,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="9"/>
     </row>
